--- a/biology/Zoologie/Eriauchenus_pauliani/Eriauchenus_pauliani.xlsx
+++ b/biology/Zoologie/Eriauchenus_pauliani/Eriauchenus_pauliani.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Eriauchenus pauliani est une espèce d'araignées aranéomorphes de la famille des Archaeidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Eriauchenus pauliani est une espèce d'araignées aranéomorphes de la famille des Archaeidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique de Madagascar[1]. Elle se rencontre vers Andohahelo[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique de Madagascar. Elle se rencontre vers Andohahelo.
 </t>
         </is>
       </c>
@@ -542,10 +556,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le mâle holotype mesure 2,4 mm et la femelle paratype 2,9 mm[3].
-Le mâle décrit par Wood et Scharff en 2018 mesure 2,39 mm[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le mâle holotype mesure 2,4 mm et la femelle paratype 2,9 mm.
+Le mâle décrit par Wood et Scharff en 2018 mesure 2,39 mm.
 </t>
         </is>
       </c>
@@ -574,9 +590,11 @@
           <t>Systématique et taxinomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce a été décrite sous le protonyme Archaea pauliani par Legendre en 1970. Elle est placée dans le genre Eriauchenus par Wunderlich en 2004[4].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce a été décrite sous le protonyme Archaea pauliani par Legendre en 1970. Elle est placée dans le genre Eriauchenus par Wunderlich en 2004.
 </t>
         </is>
       </c>
@@ -605,9 +623,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est nommée en l'honneur de Renaud Paulian[3].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est nommée en l'honneur de Renaud Paulian.
 </t>
         </is>
       </c>
@@ -636,7 +656,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Legendre, 1970 : « Arachnida-Araignées-Archaeidae. » Faune de Madagascar, vol. 32, p. 1-51.</t>
         </is>
